--- a/Week 1/2025 Software Engineering Use Cases and Features.xlsx
+++ b/Week 1/2025 Software Engineering Use Cases and Features.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsok6\Documents\NBCC Work Documents\Winter 2024\Software Engineering\Project\Repository\SoftwareEngineeringGroupProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsok6\Documents\NBCC Work Documents\Winter 2024\Software Engineering\Project\Repository\SoftwareEngineeringGroupProject\Week 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094DD8F7-A264-4A19-B355-911E36BD719C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156596B9-E8C3-4A01-A975-614279169A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPRINTS" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="167">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -355,9 +355,6 @@
     <t>Keeping track of orders</t>
   </si>
   <si>
-    <t>Admin, Customer</t>
-  </si>
-  <si>
     <t>Placing online orders</t>
   </si>
   <si>
@@ -412,9 +409,6 @@
     <t>Manager receives order from store site</t>
   </si>
   <si>
-    <t>Admin, Store Manager, Store Worker, Customer</t>
-  </si>
-  <si>
     <t>Store receives and prepares online order</t>
   </si>
   <si>
@@ -500,6 +494,51 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Admin, Store Manager</t>
+  </si>
+  <si>
+    <t>Store Worker, Customer</t>
+  </si>
+  <si>
+    <t>Admin, Store Manager, Customer</t>
+  </si>
+  <si>
+    <t>Store Worker</t>
+  </si>
+  <si>
+    <t>Nev</t>
+  </si>
+  <si>
+    <t>Created WBS using Microsoft Project</t>
+  </si>
+  <si>
+    <t>Completed Glossary included in this file</t>
+  </si>
+  <si>
+    <t>Completed Wireframe and Activity Diagram</t>
+  </si>
+  <si>
+    <t>Nick/Nev</t>
+  </si>
+  <si>
+    <t>Albert</t>
+  </si>
+  <si>
+    <t>Completed Use Case Diagram to specs</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>Wireframe Completed to specs</t>
+  </si>
+  <si>
+    <t>Sequence Diagram completed to specs</t>
   </si>
 </sst>
 </file>
@@ -910,7 +949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1077,6 +1116,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1316,8 +1362,8 @@
   </sheetPr>
   <dimension ref="A1:N991"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1401,7 +1447,7 @@
         <v>45</v>
       </c>
       <c r="H2" s="52" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I2" s="68" t="s">
         <v>23</v>
@@ -1437,7 +1483,7 @@
         <v>44</v>
       </c>
       <c r="H3" s="53" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I3" s="69" t="s">
         <v>25</v>
@@ -1467,13 +1513,15 @@
       </c>
       <c r="E4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Done</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="54"/>
+      <c r="H4" s="94" t="s">
+        <v>151</v>
+      </c>
       <c r="I4" s="70" t="s">
         <v>33</v>
       </c>
@@ -1502,12 +1550,14 @@
       </c>
       <c r="E5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Done</v>
       </c>
       <c r="G5" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="53"/>
+      <c r="H5" s="53" t="s">
+        <v>151</v>
+      </c>
       <c r="I5" s="69" t="s">
         <v>22</v>
       </c>
@@ -1536,13 +1586,15 @@
       </c>
       <c r="E6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Done</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="55"/>
+      <c r="H6" s="55" t="s">
+        <v>151</v>
+      </c>
       <c r="I6" s="71" t="s">
         <v>26</v>
       </c>
@@ -1571,13 +1623,15 @@
       </c>
       <c r="E7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Done</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="55"/>
+      <c r="H7" s="55" t="s">
+        <v>151</v>
+      </c>
       <c r="I7" s="69" t="s">
         <v>5</v>
       </c>
@@ -1611,7 +1665,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="55" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I8" s="70" t="s">
         <v>40</v>
@@ -1645,7 +1699,7 @@
         <v>31</v>
       </c>
       <c r="H9" s="53" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I9" s="66" t="s">
         <v>71</v>
@@ -6260,8 +6314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27AF674-7194-46AF-8232-662BDA70420A}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6323,7 +6377,7 @@
       </c>
       <c r="C5" s="89"/>
       <c r="D5" s="90" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -6335,7 +6389,7 @@
       </c>
       <c r="C6" s="89"/>
       <c r="D6" s="91" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -6346,7 +6400,7 @@
         <v>94</v>
       </c>
       <c r="D7" s="91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -6358,7 +6412,7 @@
       </c>
       <c r="C8" s="89"/>
       <c r="D8" s="91" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -6370,7 +6424,7 @@
       </c>
       <c r="C9" s="89"/>
       <c r="D9" s="91" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -6382,7 +6436,7 @@
       </c>
       <c r="C10" s="89"/>
       <c r="D10" s="91" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -6406,7 +6460,7 @@
       </c>
       <c r="C12" s="89"/>
       <c r="D12" s="91" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -6418,7 +6472,7 @@
       </c>
       <c r="C13" s="89"/>
       <c r="D13" s="91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -6442,7 +6496,7 @@
       </c>
       <c r="C15" s="89"/>
       <c r="D15" s="91" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -6454,7 +6508,7 @@
       </c>
       <c r="C16" s="89"/>
       <c r="D16" s="91" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -6462,11 +6516,11 @@
         <v>27</v>
       </c>
       <c r="B17" s="90" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C17" s="89"/>
       <c r="D17" s="91" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -6474,13 +6528,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="90" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C18" s="91" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D18" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -6503,10 +6557,10 @@
         <v>94</v>
       </c>
       <c r="C20" s="91" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D20" s="91" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -6517,10 +6571,10 @@
         <v>94</v>
       </c>
       <c r="C21" s="89" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D21" s="91" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -6528,13 +6582,13 @@
         <v>30</v>
       </c>
       <c r="B22" s="90" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C22" s="89" t="s">
         <v>94</v>
       </c>
       <c r="D22" s="91" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -6542,13 +6596,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="90" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C23" s="91" t="s">
         <v>94</v>
       </c>
       <c r="D23" s="91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -6556,13 +6610,13 @@
         <v>12</v>
       </c>
       <c r="B24" s="90" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C24" s="91" t="s">
         <v>94</v>
       </c>
       <c r="D24" s="91" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -6573,10 +6627,10 @@
         <v>99</v>
       </c>
       <c r="C25" s="89" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D25" s="91" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -6587,10 +6641,10 @@
         <v>94</v>
       </c>
       <c r="C26" s="89" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D26" s="89" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -6601,10 +6655,10 @@
         <v>96</v>
       </c>
       <c r="C27" s="91" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D27" s="91" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -6615,10 +6669,10 @@
         <v>94</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D28" s="91" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -6629,10 +6683,10 @@
         <v>94</v>
       </c>
       <c r="C29" s="89" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D29" s="91" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -6643,10 +6697,10 @@
         <v>94</v>
       </c>
       <c r="C30" s="89" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D30" s="91" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -6657,10 +6711,10 @@
         <v>94</v>
       </c>
       <c r="C31" s="91" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D31" s="91" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -6692,11 +6746,11 @@
         <v>20</v>
       </c>
       <c r="B34" s="90" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C34" s="89"/>
       <c r="D34" s="91" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -6707,10 +6761,10 @@
         <v>94</v>
       </c>
       <c r="C35" s="89" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D35" s="91" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -6718,7 +6772,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="90" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C36" s="91" t="s">
         <v>94</v>
@@ -6732,13 +6786,13 @@
         <v>6</v>
       </c>
       <c r="B37" s="90" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C37" s="91" t="s">
         <v>94</v>
       </c>
       <c r="D37" s="91" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -6746,10 +6800,10 @@
         <v>9</v>
       </c>
       <c r="B38" s="90" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C38" s="91" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D38" s="91" t="s">
         <v>103</v>
@@ -6763,7 +6817,7 @@
         <v>94</v>
       </c>
       <c r="D39" s="91" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -6771,11 +6825,13 @@
         <v>13</v>
       </c>
       <c r="B40" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="91" t="s">
         <v>105</v>
-      </c>
-      <c r="C40" s="89"/>
-      <c r="D40" s="91" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -6783,11 +6839,13 @@
         <v>41</v>
       </c>
       <c r="B41" s="90" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="89"/>
+        <v>152</v>
+      </c>
+      <c r="C41" s="89" t="s">
+        <v>94</v>
+      </c>
       <c r="D41" s="91" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -6795,11 +6853,13 @@
         <v>17</v>
       </c>
       <c r="B42" s="90" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" s="89"/>
+        <v>156</v>
+      </c>
+      <c r="C42" s="91" t="s">
+        <v>155</v>
+      </c>
       <c r="D42" s="91" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -6807,10 +6867,13 @@
         <v>21</v>
       </c>
       <c r="B43" s="90" t="s">
-        <v>124</v>
+        <v>154</v>
+      </c>
+      <c r="C43" t="s">
+        <v>153</v>
       </c>
       <c r="D43" s="91" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -6820,10 +6883,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5270E9A7-2550-4215-B715-AFFDEF5FCCF4}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6867,250 +6930,363 @@
       <c r="B3" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="81"/>
+      <c r="C3" s="90" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="90" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="81">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="12"/>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="90" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="90" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="81">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="81"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>3</v>
-      </c>
+      <c r="A5" s="12"/>
       <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="81"/>
+        <v>11</v>
+      </c>
+      <c r="C5" s="90" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="90" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="81">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>4</v>
-      </c>
+      <c r="A6" s="12"/>
       <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="81"/>
+        <v>34</v>
+      </c>
+      <c r="C6" s="90" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="81">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>5</v>
-      </c>
-      <c r="E7" s="81"/>
+      <c r="A7" s="12"/>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="81">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>6</v>
-      </c>
-      <c r="E8" s="81"/>
+      <c r="A8" s="12"/>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="90" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="81">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>7</v>
-      </c>
-      <c r="E9" s="81"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>8</v>
-      </c>
-      <c r="E10" s="81"/>
+      <c r="A9" s="12"/>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="90" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="95"/>
+      <c r="B10" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="90" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="90" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="96">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
       </c>
       <c r="E11" s="81"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
       </c>
       <c r="E12" s="81"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
       </c>
       <c r="E13" s="81"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E14" s="81"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E15" s="81"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E16" s="81"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E17" s="81"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E18" s="81"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E19" s="81"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E20" s="81"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E21" s="81"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E22" s="81"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E23" s="81"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E24" s="81"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E25" s="81"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E26" s="81"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E27" s="81"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E28" s="81"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E29" s="81"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E30" s="81"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E31" s="81"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E32" s="81"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E33" s="81"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E34" s="81"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E35" s="81"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E36" s="81"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E37" s="81"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E38" s="81"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E39" s="81"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E40" s="81"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E41" s="81"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
+        <v>33</v>
+      </c>
+      <c r="E42" s="81"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
+        <v>34</v>
+      </c>
+      <c r="E43" s="81"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="12">
+        <v>35</v>
+      </c>
+      <c r="E44" s="81"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
+        <v>36</v>
+      </c>
+      <c r="E45" s="81"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="12">
+        <v>37</v>
+      </c>
+      <c r="E46" s="81"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
+        <v>38</v>
+      </c>
+      <c r="E47" s="81"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="12">
+        <v>39</v>
+      </c>
+      <c r="E48" s="81"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="12">
         <v>40</v>
       </c>
-      <c r="E42" s="81"/>
+      <c r="E49" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7125,7 +7301,7 @@
           <x14:formula1>
             <xm:f>SPRINTS!$B$2:$B$48</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B42</xm:sqref>
+          <xm:sqref>B3:B49</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8076,15 +8252,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <AppVersion xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
@@ -8135,6 +8302,15 @@
     <FolderType xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8579,14 +8755,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59CB7165-58ED-4A06-BFD6-8951238233C6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43F0676B-6F5B-4293-BCF9-5D31F49595CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -8599,6 +8767,14 @@
     <ds:schemaRef ds:uri="816b5155-8360-4c81-a424-e5394c4c2d61"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59CB7165-58ED-4A06-BFD6-8951238233C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Week 1/2025 Software Engineering Use Cases and Features.xlsx
+++ b/Week 1/2025 Software Engineering Use Cases and Features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsok6\Documents\NBCC Work Documents\Winter 2024\Software Engineering\Project\Repository\SoftwareEngineeringGroupProject\Week 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156596B9-E8C3-4A01-A975-614279169A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBBC3CA-5E23-453F-BC94-F1980C695F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="170">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -539,6 +539,15 @@
   </si>
   <si>
     <t>Sequence Diagram completed to specs</t>
+  </si>
+  <si>
+    <t>Completed this status sheet</t>
+  </si>
+  <si>
+    <t>All team members contributed equally</t>
+  </si>
+  <si>
+    <t>Albert/Nick/Nev</t>
   </si>
 </sst>
 </file>
@@ -949,7 +958,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1113,16 +1122,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1519,7 +1525,7 @@
       <c r="G4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="94" t="s">
+      <c r="H4" s="93" t="s">
         <v>151</v>
       </c>
       <c r="I4" s="70" t="s">
@@ -6883,10 +6889,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5270E9A7-2550-4215-B715-AFFDEF5FCCF4}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6897,14 +6903,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="93" t="str">
+      <c r="A1" s="95" t="str">
         <f>SPRINTS!G1</f>
         <v>Sprint 1 (Mar 17 - 23)</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -6928,365 +6934,350 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="81"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="81">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="81"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="C6" s="90" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D6" s="90" t="s">
         <v>157</v>
-      </c>
-      <c r="E3" s="81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="90" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" s="81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="90" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" s="90" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="90" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="90" t="s">
-        <v>164</v>
       </c>
       <c r="E6" s="81">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D7" s="90" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E7" s="81">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D8" s="90" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E8" s="81">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C9" s="90" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D9" s="90" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E9" s="81">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="95"/>
-      <c r="B10" s="90" t="s">
-        <v>31</v>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D10" s="90" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10" s="96">
+        <v>164</v>
+      </c>
+      <c r="E10" s="81">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="90" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="81">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="81"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="81"/>
+        <v>19</v>
+      </c>
+      <c r="C12" s="90" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="90" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="81">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="81"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="90" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="90" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="94">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <v>5</v>
-      </c>
-      <c r="E14" s="81"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E15" s="81"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E16" s="81"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E17" s="81"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E18" s="81"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="81"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E20" s="81"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E21" s="81"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E22" s="81"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E23" s="81"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E24" s="81"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E25" s="81"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E26" s="81"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E27" s="81"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E28" s="81"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E29" s="81"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E30" s="81"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E31" s="81"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E32" s="81"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E33" s="81"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E34" s="81"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E35" s="81"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E36" s="81"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E37" s="81"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E38" s="81"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E39" s="81"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E40" s="81"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E41" s="81"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E42" s="81"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="12">
-        <v>34</v>
-      </c>
-      <c r="E43" s="81"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="12">
-        <v>35</v>
-      </c>
-      <c r="E44" s="81"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="12">
-        <v>36</v>
-      </c>
-      <c r="E45" s="81"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="12">
-        <v>37</v>
-      </c>
-      <c r="E46" s="81"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="12">
-        <v>38</v>
-      </c>
-      <c r="E47" s="81"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="12">
-        <v>39</v>
-      </c>
-      <c r="E48" s="81"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="12">
-        <v>40</v>
-      </c>
-      <c r="E49" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7301,7 +7292,7 @@
           <x14:formula1>
             <xm:f>SPRINTS!$B$2:$B$48</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B49</xm:sqref>
+          <xm:sqref>B15:B42 B3:B13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7325,14 +7316,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="93" t="str">
+      <c r="A1" s="95" t="str">
         <f>SPRINTS!I1</f>
         <v>Sprint 2 (Mar 24-30)</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -7639,14 +7630,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="93" t="str">
+      <c r="A1" s="95" t="str">
         <f>SPRINTS!K1</f>
         <v>Sprint 3 (Mar 31 - Apr 6)</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -7953,14 +7944,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="93" t="str">
+      <c r="A1" s="95" t="str">
         <f>SPRINTS!M1</f>
         <v>Sprint 4 (Apr 7 - 11)</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -8252,6 +8243,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <AppVersion xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
@@ -8302,15 +8302,6 @@
     <FolderType xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8755,6 +8746,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59CB7165-58ED-4A06-BFD6-8951238233C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43F0676B-6F5B-4293-BCF9-5D31F49595CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -8767,14 +8766,6 @@
     <ds:schemaRef ds:uri="816b5155-8360-4c81-a424-e5394c4c2d61"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59CB7165-58ED-4A06-BFD6-8951238233C6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Week 1/2025 Software Engineering Use Cases and Features.xlsx
+++ b/Week 1/2025 Software Engineering Use Cases and Features.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsok6\Documents\NBCC Work Documents\Winter 2024\Software Engineering\Project\Repository\SoftwareEngineeringGroupProject\Week 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBBC3CA-5E23-453F-BC94-F1980C695F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4910C2-E07C-47C8-8F76-A6C36320E932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPRINTS" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="175">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -548,6 +548,21 @@
   </si>
   <si>
     <t>Albert/Nick/Nev</t>
+  </si>
+  <si>
+    <t>Nick, Nev</t>
+  </si>
+  <si>
+    <t>UCN, Sequence Diagram</t>
+  </si>
+  <si>
+    <t>To Specs</t>
+  </si>
+  <si>
+    <t>UCN, Wireframe</t>
+  </si>
+  <si>
+    <t>UCN, Activity Diagram</t>
   </si>
 </sst>
 </file>
@@ -958,7 +973,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1128,6 +1143,9 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1368,8 +1386,8 @@
   </sheetPr>
   <dimension ref="A1:N991"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1458,7 +1476,9 @@
       <c r="I2" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="52"/>
+      <c r="J2" s="52" t="s">
+        <v>151</v>
+      </c>
       <c r="K2" s="73" t="s">
         <v>18</v>
       </c>
@@ -1494,7 +1514,9 @@
       <c r="I3" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="53"/>
+      <c r="J3" s="53" t="s">
+        <v>151</v>
+      </c>
       <c r="K3" s="74" t="s">
         <v>32</v>
       </c>
@@ -1531,7 +1553,9 @@
       <c r="I4" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="54"/>
+      <c r="J4" s="96" t="s">
+        <v>151</v>
+      </c>
       <c r="K4" s="75" t="s">
         <v>39</v>
       </c>
@@ -1567,7 +1591,9 @@
       <c r="I5" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="53"/>
+      <c r="J5" s="53" t="s">
+        <v>151</v>
+      </c>
       <c r="K5" s="74" t="s">
         <v>3</v>
       </c>
@@ -1604,7 +1630,9 @@
       <c r="I6" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="55"/>
+      <c r="J6" s="55" t="s">
+        <v>151</v>
+      </c>
       <c r="K6" s="76" t="s">
         <v>13</v>
       </c>
@@ -1641,7 +1669,9 @@
       <c r="I7" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="55"/>
+      <c r="J7" s="55" t="s">
+        <v>151</v>
+      </c>
       <c r="K7" s="77" t="s">
         <v>52</v>
       </c>
@@ -1676,7 +1706,9 @@
       <c r="I8" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="55"/>
+      <c r="J8" s="55" t="s">
+        <v>151</v>
+      </c>
       <c r="K8" s="77" t="s">
         <v>53</v>
       </c>
@@ -6891,7 +6923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5270E9A7-2550-4215-B715-AFFDEF5FCCF4}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -7305,7 +7337,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E42"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7349,7 +7381,15 @@
       <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="81"/>
+      <c r="C3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
@@ -7367,7 +7407,15 @@
       <c r="B5" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="81"/>
+      <c r="C5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
@@ -7376,55 +7424,148 @@
       <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="81"/>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="E7" s="81"/>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="E8" s="81"/>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="E9" s="81"/>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="E10" s="81"/>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="E11" s="81"/>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="E12" s="81"/>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="E13" s="81"/>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="E14" s="81"/>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
@@ -7606,7 +7747,7 @@
           <x14:formula1>
             <xm:f>SPRINTS!$B$2:$B$48</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B42</xm:sqref>
+          <xm:sqref>B14:B42 B3:B12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8243,15 +8384,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <AppVersion xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
@@ -8302,6 +8434,15 @@
     <FolderType xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8746,14 +8887,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59CB7165-58ED-4A06-BFD6-8951238233C6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43F0676B-6F5B-4293-BCF9-5D31F49595CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -8766,6 +8899,14 @@
     <ds:schemaRef ds:uri="816b5155-8360-4c81-a424-e5394c4c2d61"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59CB7165-58ED-4A06-BFD6-8951238233C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Week 1/2025 Software Engineering Use Cases and Features.xlsx
+++ b/Week 1/2025 Software Engineering Use Cases and Features.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsok6\Documents\NBCC Work Documents\Winter 2024\Software Engineering\Project\Repository\SoftwareEngineeringGroupProject\Week 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4910C2-E07C-47C8-8F76-A6C36320E932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A751318D-41BF-479A-9ACA-0F980D110820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPRINTS" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="177">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -563,6 +563,12 @@
   </si>
   <si>
     <t>UCN, Activity Diagram</t>
+  </si>
+  <si>
+    <t>Albert, Nick</t>
+  </si>
+  <si>
+    <t>To specs</t>
   </si>
 </sst>
 </file>
@@ -1141,11 +1147,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1386,8 +1392,8 @@
   </sheetPr>
   <dimension ref="A1:N991"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1482,7 +1488,9 @@
       <c r="K2" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="56"/>
+      <c r="L2" s="56" t="s">
+        <v>151</v>
+      </c>
       <c r="M2" s="79" t="s">
         <v>53</v>
       </c>
@@ -1520,7 +1528,9 @@
       <c r="K3" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="57"/>
+      <c r="L3" s="57" t="s">
+        <v>151</v>
+      </c>
       <c r="M3" s="80" t="s">
         <v>75</v>
       </c>
@@ -1553,13 +1563,15 @@
       <c r="I4" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="96" t="s">
+      <c r="J4" s="95" t="s">
         <v>151</v>
       </c>
       <c r="K4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="57"/>
+      <c r="L4" s="57" t="s">
+        <v>151</v>
+      </c>
       <c r="M4" s="80" t="s">
         <v>76</v>
       </c>
@@ -1597,7 +1609,9 @@
       <c r="K5" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="57"/>
+      <c r="L5" s="57" t="s">
+        <v>151</v>
+      </c>
       <c r="M5" s="80" t="s">
         <v>66</v>
       </c>
@@ -1636,7 +1650,9 @@
       <c r="K6" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="57"/>
+      <c r="L6" s="57" t="s">
+        <v>151</v>
+      </c>
       <c r="M6" s="80" t="s">
         <v>88</v>
       </c>
@@ -1675,7 +1691,9 @@
       <c r="K7" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="57"/>
+      <c r="L7" s="57" t="s">
+        <v>151</v>
+      </c>
       <c r="M7" s="9"/>
       <c r="N7" s="11"/>
     </row>
@@ -1712,7 +1730,9 @@
       <c r="K8" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="L8" s="57"/>
+      <c r="L8" s="57" t="s">
+        <v>151</v>
+      </c>
       <c r="M8" s="8"/>
       <c r="N8" s="11"/>
     </row>
@@ -6935,14 +6955,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="96" t="str">
         <f>SPRINTS!G1</f>
         <v>Sprint 1 (Mar 17 - 23)</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -7348,14 +7368,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="96" t="str">
         <f>SPRINTS!I1</f>
         <v>Sprint 2 (Mar 24-30)</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -7759,8 +7779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DCECB4-F389-4C32-876B-E54C90260474}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7771,14 +7791,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="96" t="str">
         <f>SPRINTS!K1</f>
         <v>Sprint 3 (Mar 31 - Apr 6)</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -7804,7 +7824,15 @@
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="81"/>
+      <c r="C3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
@@ -7822,7 +7850,15 @@
       <c r="B5" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="81"/>
+      <c r="C5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
@@ -7831,49 +7867,126 @@
       <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="81"/>
+      <c r="C6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
       <c r="E7" s="81"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="E8" s="81"/>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="E9" s="81"/>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="E10" s="81"/>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="E11" s="81"/>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="E12" s="81"/>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="E13" s="81"/>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="81">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
@@ -8085,14 +8198,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="96" t="str">
         <f>SPRINTS!M1</f>
         <v>Sprint 4 (Apr 7 - 11)</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -8384,6 +8497,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <AppVersion xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
@@ -8434,15 +8556,6 @@
     <FolderType xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8887,6 +9000,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59CB7165-58ED-4A06-BFD6-8951238233C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43F0676B-6F5B-4293-BCF9-5D31F49595CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -8899,14 +9020,6 @@
     <ds:schemaRef ds:uri="816b5155-8360-4c81-a424-e5394c4c2d61"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59CB7165-58ED-4A06-BFD6-8951238233C6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
